--- a/WebForecastReport/wwwroot/template/quotation_report_pendinginout.xlsx
+++ b/WebForecastReport/wwwroot/template/quotation_report_pendinginout.xlsx
@@ -122,7 +122,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -138,6 +138,17 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -421,29 +432,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -481,37 +489,37 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="9" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -520,13 +528,13 @@
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="10" t="s">
         <v>7</v>
       </c>
     </row>
